--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Kottelat/Maurice_Kottelat.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Kottelat/Maurice_Kottelat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Kottelat, né le 16 juillet 1957 à Delémont, est un ichtyologiste suisse qui vit actuellement à Delémont, dans le Canton du Jura, en Suisse.
 Il a découvert, avec Tan Heok Hui (en), le plus petit vertébré du monde, Paedocypris progenetica. Il est à l'origine de la découverte de 400 espèces de poissons.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 4 novembre 2006, il obtient le titre universitaire de docteur honoris causa de l'université de Neuchâtel en Suisse lors de la cérémonie du Dies Academicus. Il est  membre de la Commission internationale de nomenclature zoologique (1997-2007), membre correspondant du Muséum d'histoire naturelle de Genève, membre d'honneur de la Société américaine des ichtyologistes et des herpétologistes et président de la Société européenne d'ichtyologie.
 Maurice Kottelat est le dédicataire d'au moins deux genres :
@@ -557,7 +571,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Kottelat est l'auteur de nombreuses publications, dont :
 (en) M. Kottelat, « A small collection of fresh-water fishes from Kalimantan, Borneo, with descriptions of one new genus and three new species of Cyprinidae », Revue suisse de zoologie, MHNG, vol. 89,‎ 1982, p. 419–437 (ISSN 0035-418X, DOI 10.5962/BHL.PART.82452)
